--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811DE5C-7444-4A5A-9B2C-622825ED539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D533C-9B75-4912-A46C-E5F1F04FB41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4B2DB320-86EF-4130-9C81-1FA6CFEBF838}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="199">
   <si>
     <t>Project Name</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>The user must be still logged in</t>
+  </si>
+  <si>
+    <t>username:test</t>
   </si>
 </sst>
 </file>
@@ -1840,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9D9B7-3D50-4F23-9B79-111CA4749B6E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,7 +1909,9 @@
       <c r="D3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="F3" t="s">
         <v>99</v>
       </c>
